--- a/Table/client/lua/exe/temp/R 日常任务.xlsx
+++ b/Table/client/lua/exe/temp/R 日常任务.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D4AC3-8493-4CFC-B4F3-0F0980AAE2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,12 +63,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AF053EA4-9CCF-411D-BA5C-D8EE5078B217}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>组ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,45 +154,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55~70级日常任务</t>
-  </si>
-  <si>
-    <t>71~84级日常任务</t>
-  </si>
-  <si>
-    <t>85~90级日常任务</t>
-  </si>
-  <si>
-    <t>150~199级日常任务</t>
-  </si>
-  <si>
-    <t>200~249级日常任务</t>
-  </si>
-  <si>
-    <t>250~299级日常任务</t>
-  </si>
-  <si>
-    <t>300~349级日常任务</t>
-  </si>
-  <si>
-    <t>350~399级日常任务</t>
-  </si>
-  <si>
-    <t>400~999级日常任务</t>
-  </si>
-  <si>
-    <t>92~139级日常任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,60000,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55~70級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71~84級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85~90級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92~139級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150~199級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~249級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250~299級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300~349級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350~399級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400~999級日常任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幫派任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>55~70레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>71~84레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>85~90레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>92~139레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>150~199레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>200~249레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>250~299레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>300~349레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>350~399레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>400~999레벨 일상 퀘스트</t>
+  </si>
+  <si>
+    <t>문파 퀘스트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,243 +601,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -801,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADD5AF5-B0DF-4496-A55A-90BBE5762CB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Table/client/lua/exe/temp/R 日常任务.xlsx
+++ b/Table/client/lua/exe/temp/R 日常任务.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D4AC3-8493-4CFC-B4F3-0F0980AAE2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +63,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AF053EA4-9CCF-411D-BA5C-D8EE5078B217}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>组ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,94 +154,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>55~70级日常任务</t>
+  </si>
+  <si>
+    <t>71~84级日常任务</t>
+  </si>
+  <si>
+    <t>85~90级日常任务</t>
+  </si>
+  <si>
+    <t>150~199级日常任务</t>
+  </si>
+  <si>
+    <t>200~249级日常任务</t>
+  </si>
+  <si>
+    <t>250~299级日常任务</t>
+  </si>
+  <si>
+    <t>300~349级日常任务</t>
+  </si>
+  <si>
+    <t>350~399级日常任务</t>
+  </si>
+  <si>
+    <t>400~999级日常任务</t>
+  </si>
+  <si>
+    <t>92~139级日常任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,60000,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55~70級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71~84級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85~90級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92~139級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150~199級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200~249級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250~299級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300~349級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350~399級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400~999級日常任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幫派任務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>55~70레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>71~84레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>85~90레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>92~139레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>150~199레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>200~249레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>250~299레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>300~349레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>350~399레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>400~999레벨 일상 퀘스트</t>
-  </si>
-  <si>
-    <t>문파 퀘스트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,289 +552,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -896,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADD5AF5-B0DF-4496-A55A-90BBE5762CB3}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
